--- a/Mockup.xlsx
+++ b/Mockup.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="112">
   <si>
     <t>Menu utaman</t>
   </si>
@@ -154,7 +154,16 @@
     <t>B5</t>
   </si>
   <si>
+    <t>SO</t>
+  </si>
+  <si>
+    <t>User Id</t>
+  </si>
+  <si>
     <t>``</t>
+  </si>
+  <si>
+    <t>Service Hardware</t>
   </si>
   <si>
     <t>Keterangan</t>
@@ -357,12 +366,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -397,28 +406,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -427,15 +414,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -450,7 +429,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -458,7 +437,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -503,6 +490,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
@@ -511,7 +506,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -526,7 +535,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -539,15 +548,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="36">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -574,25 +576,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -604,19 +612,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -640,7 +642,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -652,43 +720,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -700,61 +738,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -779,30 +769,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -856,6 +822,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -866,6 +847,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -883,157 +873,157 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1051,7 +1041,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1571,7 +1561,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1579,74 +1569,74 @@
         <v>10</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C3" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C4" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C5" s="2">
         <v>1770000</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C6" s="2">
         <v>11111</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C7" s="4">
         <v>0</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:1">
@@ -1654,102 +1644,102 @@
     </row>
     <row r="10" spans="1:22">
       <c r="A10" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="K10" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="V10" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:29">
       <c r="A11" s="7" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B11" s="7"/>
       <c r="C11" s="7" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>28</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="I11" s="8"/>
       <c r="K11" s="7" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="M11" s="7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="N11" s="7" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="R11" s="7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="S11" s="8" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="T11" s="8"/>
       <c r="V11" s="7" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="W11" s="7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="X11" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y11" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z11" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="AA11" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="Y11" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="Z11" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="AA11" s="7" t="s">
-        <v>95</v>
-      </c>
       <c r="AB11" s="8" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="AC11" s="8"/>
     </row>
     <row r="12" spans="8:20">
       <c r="H12" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="I12" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="S12" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="T12" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1766,16 +1756,16 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="16.7777777777778" customWidth="1"/>
-    <col min="2" max="2" width="13" customWidth="1"/>
+    <col min="2" max="2" width="16.6666666666667" customWidth="1"/>
     <col min="4" max="4" width="13.7222222222222" customWidth="1"/>
     <col min="5" max="5" width="15.7777777777778" customWidth="1"/>
     <col min="6" max="6" width="11.4444444444444" customWidth="1"/>
@@ -1911,60 +1901,55 @@
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="8:8">
+    <row r="17" spans="2:2">
+      <c r="B17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8">
+      <c r="B18" t="s">
+        <v>44</v>
+      </c>
       <c r="H18" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
-        <v>44</v>
-      </c>
-      <c r="B19" s="11"/>
-      <c r="C19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" s="11"/>
+      <c r="C21" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="B21" s="13" t="s">
+    <row r="23" spans="1:7">
+      <c r="A23" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B23" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="D21" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="E21" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="F21" s="13" t="s">
+      <c r="C23" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="G21" s="13" t="s">
+      <c r="D23" s="13" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="11"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="11"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
+      <c r="E23" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="F23" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="G23" s="13" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="11"/>
@@ -2010,6 +1995,24 @@
       <c r="E28" s="11"/>
       <c r="F28" s="11"/>
       <c r="G28" s="11"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="11"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="11"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2037,78 +2040,78 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C3" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C5" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="7" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B8" s="7"/>
       <c r="C8" s="7" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>28</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="I8" s="8"/>
     </row>
     <row r="9" spans="8:9">
       <c r="H9" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="I9" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -2139,68 +2142,68 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C3" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C5" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C6" s="2">
         <v>1770000</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C7" s="2">
         <v>270000</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2208,41 +2211,41 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C8" s="2">
         <v>70800</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C9" s="2">
         <v>60000</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C10" s="2">
         <v>10800</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -2250,38 +2253,38 @@
         <v>7</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C11" s="2">
         <v>76000</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C12" s="4">
         <v>0</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -2291,48 +2294,48 @@
     </row>
     <row r="15" spans="5:6">
       <c r="E15" s="9" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="7" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B17" s="7"/>
       <c r="C17" s="7" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D17" s="7" t="s">
         <v>28</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="I17" s="8"/>
     </row>
     <row r="18" spans="8:9">
       <c r="H18" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="I18" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -2363,68 +2366,68 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C3" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C5" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C6" s="2">
         <v>1770000</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C7" s="2">
         <v>270000</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2432,41 +2435,41 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C8" s="2">
         <v>70800</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C9" s="2">
         <v>60000</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C10" s="2">
         <v>10800</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -2474,47 +2477,47 @@
         <v>7</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C11" s="2">
         <v>76000</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C12" s="4">
         <v>0</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="1"/>
       <c r="E14" s="9" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:1">
@@ -2522,35 +2525,35 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="7" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B16" s="7"/>
       <c r="C16" s="7" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D16" s="7" t="s">
         <v>28</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="I16" s="8"/>
     </row>
     <row r="17" spans="8:9">
       <c r="H17" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="I17" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -2582,68 +2585,68 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C3" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C5" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C6" s="2">
         <v>1770000</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C7" s="2">
         <v>270000</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2651,41 +2654,41 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C8" s="2">
         <v>70800</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C9" s="2">
         <v>60000</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C10" s="2">
         <v>10800</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -2693,119 +2696,119 @@
         <v>7</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C11" s="2">
         <v>76000</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C12" s="4">
         <v>0</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="1"/>
       <c r="E14" s="9" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="K15" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="16" spans="1:19">
       <c r="A16" s="7" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B16" s="7"/>
       <c r="C16" s="7" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D16" s="7" t="s">
         <v>28</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="I16" s="8"/>
       <c r="K16" s="7" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="M16" s="7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="N16" s="7" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="R16" s="8" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="S16" s="8"/>
     </row>
     <row r="17" spans="8:19">
       <c r="H17" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="I17" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="R17" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="S17" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -2838,68 +2841,68 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C3" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C5" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C6" s="2">
         <v>1770000</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C7" s="2">
         <v>270000</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2907,41 +2910,41 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C8" s="2">
         <v>70800</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C9" s="2">
         <v>60000</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C10" s="2">
         <v>10800</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -2949,119 +2952,119 @@
         <v>7</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C11" s="2">
         <v>76000</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C12" s="4">
         <v>0</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="1"/>
       <c r="E14" s="9" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="K15" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="16" spans="1:19">
       <c r="A16" s="7" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B16" s="7"/>
       <c r="C16" s="7" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D16" s="7" t="s">
         <v>28</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="I16" s="8"/>
       <c r="K16" s="7" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="M16" s="7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="N16" s="7" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="R16" s="8" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="S16" s="8"/>
     </row>
     <row r="17" spans="8:19">
       <c r="H17" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="I17" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="R17" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="S17" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -3096,68 +3099,68 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C3" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C5" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C6" s="2">
         <v>1770000</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C7" s="2">
         <v>270000</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -3165,41 +3168,41 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C8" s="2">
         <v>70800</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C9" s="2">
         <v>60000</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C10" s="2">
         <v>10800</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -3207,147 +3210,147 @@
         <v>7</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C11" s="2">
         <v>76000</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C12" s="4">
         <v>0</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="1"/>
       <c r="E14" s="9" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:22">
       <c r="A15" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="K15" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="V15" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16" spans="1:29">
       <c r="A16" s="7" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B16" s="7"/>
       <c r="C16" s="7" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D16" s="7" t="s">
         <v>28</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="I16" s="8"/>
       <c r="K16" s="7" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="M16" s="7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="N16" s="7" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="R16" s="7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="S16" s="8" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="T16" s="8"/>
       <c r="V16" s="7" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="W16" s="7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="X16" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y16" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z16" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="AA16" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="Y16" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="Z16" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="AA16" s="7" t="s">
-        <v>95</v>
-      </c>
       <c r="AB16" s="8" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="AC16" s="8"/>
     </row>
     <row r="17" spans="8:20">
       <c r="H17" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="I17" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="S17" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="T17" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -3383,7 +3386,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3391,74 +3394,74 @@
         <v>10</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C3" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C4" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C5" s="2">
         <v>1770000</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C6" s="2">
         <v>11111</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C7" s="4">
         <v>0</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:1">
@@ -3466,102 +3469,102 @@
     </row>
     <row r="10" spans="1:22">
       <c r="A10" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="K10" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="V10" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:29">
       <c r="A11" s="7" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B11" s="7"/>
       <c r="C11" s="7" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>28</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="I11" s="8"/>
       <c r="K11" s="7" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="M11" s="7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="N11" s="7" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="R11" s="7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="S11" s="8" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="T11" s="8"/>
       <c r="V11" s="7" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="W11" s="7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="X11" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y11" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z11" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="AA11" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="Y11" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="Z11" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="AA11" s="7" t="s">
-        <v>95</v>
-      </c>
       <c r="AB11" s="8" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="AC11" s="8"/>
     </row>
     <row r="12" spans="8:20">
       <c r="H12" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="I12" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="S12" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="T12" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
